--- a/火凤祥_新.xlsx
+++ b/火凤祥_新.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH5"/>
+  <dimension ref="A1:BH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1436,220 +1436,1588 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>2022-03-19</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>315.99</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="0" t="inlineStr">
         <is>
           <t>59</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="0" t="inlineStr">
         <is>
           <t>510</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="0" t="inlineStr">
         <is>
           <t>4,675</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="0" t="inlineStr">
         <is>
           <t>1684</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="0" t="inlineStr">
         <is>
           <t>510</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="0" t="inlineStr">
         <is>
           <t>1174</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" s="0" t="inlineStr">
         <is>
           <t>4810.00</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="0" t="inlineStr">
         <is>
           <t>4810</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="0" t="inlineStr">
         <is>
           <t>4810</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
+      <c r="T5" s="0" t="inlineStr"/>
+      <c r="U5" s="0" t="inlineStr">
         <is>
           <t>1174</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="0" t="inlineStr">
         <is>
           <t>1174</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="0" t="inlineStr">
         <is>
           <t>343</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="0" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="0" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AA5" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AB5" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AC5" s="0" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AD5" s="0" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AE5" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AF5" s="0" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AG5" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AL5" s="0" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AM5" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AN5" s="0" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AO5" s="0" t="inlineStr">
         <is>
           <t>2520.0</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AP5" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AQ5" s="0" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AR5" s="0" t="inlineStr">
         <is>
           <t>264.0</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AS5" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AT5" s="0" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="AU5" s="0" t="inlineStr">
         <is>
           <t>990.0</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr">
+      <c r="AV5" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr">
+      <c r="AW5" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
+      <c r="AX5" s="0" t="inlineStr">
         <is>
           <t>596.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>315.99</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>4,675</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>52.66</t>
+        </is>
+      </c>
+      <c r="M6" s="0" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N6" s="0" t="inlineStr">
+        <is>
+          <t>1684</t>
+        </is>
+      </c>
+      <c r="O6" s="0" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="P6" s="0" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="Q6" s="0" t="inlineStr">
+        <is>
+          <t>4810.00</t>
+        </is>
+      </c>
+      <c r="R6" s="0" t="inlineStr">
+        <is>
+          <t>4810</t>
+        </is>
+      </c>
+      <c r="S6" s="0" t="inlineStr">
+        <is>
+          <t>4810</t>
+        </is>
+      </c>
+      <c r="T6" s="0" t="inlineStr"/>
+      <c r="U6" s="0" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="V6" s="0" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="W6" s="0" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="X6" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Y6" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA6" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB6" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC6" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD6" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE6" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF6" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL6" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AM6" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AN6" s="0" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AO6" s="0" t="inlineStr">
+        <is>
+          <t>2520.0</t>
+        </is>
+      </c>
+      <c r="AP6" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AQ6" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AR6" s="0" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="AS6" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AT6" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AU6" s="0" t="inlineStr">
+        <is>
+          <t>990.0</t>
+        </is>
+      </c>
+      <c r="AV6" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AW6" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX6" s="0" t="inlineStr">
+        <is>
+          <t>596.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>315.99</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>4,675</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>52.66</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>1684</t>
+        </is>
+      </c>
+      <c r="O7" s="0" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="P7" s="0" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>4810.00</t>
+        </is>
+      </c>
+      <c r="R7" s="0" t="inlineStr">
+        <is>
+          <t>4810</t>
+        </is>
+      </c>
+      <c r="S7" s="0" t="inlineStr">
+        <is>
+          <t>4810</t>
+        </is>
+      </c>
+      <c r="T7" s="0" t="inlineStr"/>
+      <c r="U7" s="0" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC7" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD7" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE7" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF7" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL7" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AM7" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AN7" s="0" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AO7" s="0" t="inlineStr">
+        <is>
+          <t>2520.0</t>
+        </is>
+      </c>
+      <c r="AP7" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AQ7" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AR7" s="0" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="AS7" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AT7" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AU7" s="0" t="inlineStr">
+        <is>
+          <t>990.0</t>
+        </is>
+      </c>
+      <c r="AV7" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AW7" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX7" s="0" t="inlineStr">
+        <is>
+          <t>596.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>315.99</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>4,675</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>52.66</t>
+        </is>
+      </c>
+      <c r="M8" s="0" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N8" s="0" t="inlineStr">
+        <is>
+          <t>1684</t>
+        </is>
+      </c>
+      <c r="O8" s="0" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="P8" s="0" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="Q8" s="0" t="inlineStr">
+        <is>
+          <t>4810.00</t>
+        </is>
+      </c>
+      <c r="R8" s="0" t="inlineStr">
+        <is>
+          <t>4810</t>
+        </is>
+      </c>
+      <c r="S8" s="0" t="inlineStr">
+        <is>
+          <t>4810</t>
+        </is>
+      </c>
+      <c r="T8" s="0" t="inlineStr"/>
+      <c r="U8" s="0" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="V8" s="0" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="W8" s="0" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA8" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB8" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC8" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD8" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE8" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF8" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL8" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AM8" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AN8" s="0" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AO8" s="0" t="inlineStr">
+        <is>
+          <t>2520.0</t>
+        </is>
+      </c>
+      <c r="AP8" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AQ8" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AR8" s="0" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="AS8" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AT8" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AU8" s="0" t="inlineStr">
+        <is>
+          <t>990.0</t>
+        </is>
+      </c>
+      <c r="AV8" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AW8" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX8" s="0" t="inlineStr">
+        <is>
+          <t>596.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>147.05</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>1,996</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>147.05</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="N9" s="0" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="O9" s="0" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="P9" s="0" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="Q9" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R9" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S9" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="T9" s="0" t="inlineStr"/>
+      <c r="U9" s="0" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="V9" s="0" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB9" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC9" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD9" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE9" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF9" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL9" s="0" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AM9" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AN9" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AO9" s="0" t="inlineStr">
+        <is>
+          <t>1125.0</t>
+        </is>
+      </c>
+      <c r="AP9" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AQ9" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AR9" s="0" t="inlineStr">
+        <is>
+          <t>616.0</t>
+        </is>
+      </c>
+      <c r="AS9" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AT9" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AU9" s="0" t="inlineStr">
+        <is>
+          <t>1386.0</t>
+        </is>
+      </c>
+      <c r="AV9" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AW9" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX9" s="0" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>147.05</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>1,996</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>147.05</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="O10" s="0" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="P10" s="0" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="Q10" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R10" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S10" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="T10" s="0" t="inlineStr"/>
+      <c r="U10" s="0" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="V10" s="0" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="Y10" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA10" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB10" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC10" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD10" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE10" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF10" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL10" s="0" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AM10" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AN10" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AO10" s="0" t="inlineStr">
+        <is>
+          <t>1125.0</t>
+        </is>
+      </c>
+      <c r="AP10" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AQ10" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AR10" s="0" t="inlineStr">
+        <is>
+          <t>616.0</t>
+        </is>
+      </c>
+      <c r="AS10" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AT10" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AU10" s="0" t="inlineStr">
+        <is>
+          <t>1386.0</t>
+        </is>
+      </c>
+      <c r="AV10" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AW10" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX10" s="0" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>147.05</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1,996</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>147.05</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>1125.0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>616.0</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>1386.0</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>298.0</t>
         </is>
       </c>
     </row>

--- a/火凤祥_新.xlsx
+++ b/火凤祥_新.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1800" yWindow="8840" windowWidth="27440" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1800" yWindow="4220" windowWidth="27440" windowHeight="14040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="火凤祥鲜货火锅（珠海总店）" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -38,13 +38,6 @@
       <family val="4"/>
       <color rgb="FFFF0000"/>
       <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <family val="4"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -476,10 +469,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH11"/>
+  <dimension ref="A1:BH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AA7" workbookViewId="0">
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -677,105 +670,110 @@
       </c>
       <c r="AM1" s="0" t="inlineStr">
         <is>
+          <t>类目</t>
+        </is>
+      </c>
+      <c r="AN1" s="0" t="inlineStr">
+        <is>
           <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
         </is>
       </c>
-      <c r="AN1" s="0" t="inlineStr">
+      <c r="AO1" s="0" t="inlineStr">
         <is>
           <t>份数</t>
         </is>
       </c>
-      <c r="AO1" s="0" t="inlineStr">
+      <c r="AP1" s="0" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="AP1" s="0" t="inlineStr">
+      <c r="AQ1" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
         </is>
       </c>
-      <c r="AQ1" s="0" t="inlineStr">
+      <c r="AR1" s="0" t="inlineStr">
         <is>
           <t>份数</t>
         </is>
       </c>
-      <c r="AR1" s="0" t="inlineStr">
+      <c r="AS1" s="0" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="AS1" s="0" t="inlineStr">
+      <c r="AT1" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
         </is>
       </c>
-      <c r="AT1" s="0" t="inlineStr">
+      <c r="AU1" s="0" t="inlineStr">
         <is>
           <t>份数</t>
         </is>
       </c>
-      <c r="AU1" s="0" t="inlineStr">
+      <c r="AV1" s="0" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="AV1" s="0" t="inlineStr">
+      <c r="AW1" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
         </is>
       </c>
-      <c r="AW1" s="0" t="inlineStr">
+      <c r="AX1" s="0" t="inlineStr">
         <is>
           <t>份数</t>
         </is>
       </c>
-      <c r="AX1" s="0" t="inlineStr">
+      <c r="AY1" s="0" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="AY1" s="0" t="inlineStr">
+      <c r="AZ1" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅【鳳祥夜宴】新品锅底2选1[6.8]</t>
         </is>
       </c>
-      <c r="AZ1" s="0" t="inlineStr">
+      <c r="BA1" s="0" t="inlineStr">
         <is>
           <t>份数</t>
         </is>
       </c>
-      <c r="BA1" s="0" t="inlineStr">
+      <c r="BB1" s="0" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="BB1" s="0" t="inlineStr">
+      <c r="BC1" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅2人餐[9.9]</t>
         </is>
       </c>
-      <c r="BC1" s="0" t="inlineStr">
+      <c r="BD1" s="0" t="inlineStr">
         <is>
           <t>份数</t>
         </is>
       </c>
-      <c r="BD1" s="0" t="inlineStr">
+      <c r="BE1" s="0" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
       </c>
-      <c r="BE1" s="0" t="inlineStr">
+      <c r="BF1" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅红糖糍粑1份[15.8]</t>
         </is>
       </c>
-      <c r="BF1" s="0" t="inlineStr">
+      <c r="BG1" s="0" t="inlineStr">
         <is>
           <t>份数</t>
         </is>
       </c>
-      <c r="BG1" s="0" t="inlineStr">
+      <c r="BH1" s="0" t="inlineStr">
         <is>
           <t>金额</t>
         </is>
@@ -867,7 +865,6 @@
           <t>4810</t>
         </is>
       </c>
-      <c r="T2" s="0" t="inlineStr"/>
       <c r="U2" s="0" t="inlineStr">
         <is>
           <t>1174</t>
@@ -938,62 +935,62 @@
           <t>5</t>
         </is>
       </c>
-      <c r="AM2" s="0" t="inlineStr">
+      <c r="AN2" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
         </is>
       </c>
-      <c r="AN2" s="0" t="inlineStr">
+      <c r="AO2" s="0" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="AO2" s="0" t="inlineStr">
+      <c r="AP2" s="0" t="inlineStr">
         <is>
           <t>2520.0</t>
         </is>
       </c>
-      <c r="AP2" s="0" t="inlineStr">
+      <c r="AQ2" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
         </is>
       </c>
-      <c r="AQ2" s="0" t="inlineStr">
+      <c r="AR2" s="0" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AR2" s="0" t="inlineStr">
+      <c r="AS2" s="0" t="inlineStr">
         <is>
           <t>264.0</t>
         </is>
       </c>
-      <c r="AS2" s="0" t="inlineStr">
+      <c r="AT2" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
         </is>
       </c>
-      <c r="AT2" s="0" t="inlineStr">
+      <c r="AU2" s="0" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AU2" s="0" t="inlineStr">
+      <c r="AV2" s="0" t="inlineStr">
         <is>
           <t>990.0</t>
         </is>
       </c>
-      <c r="AV2" s="0" t="inlineStr">
+      <c r="AW2" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
         </is>
       </c>
-      <c r="AW2" s="0" t="inlineStr">
+      <c r="AX2" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX2" s="0" t="inlineStr">
+      <c r="AY2" s="0" t="inlineStr">
         <is>
           <t>596.0</t>
         </is>
@@ -1085,7 +1082,6 @@
           <t>4810</t>
         </is>
       </c>
-      <c r="T3" s="0" t="inlineStr"/>
       <c r="U3" s="0" t="inlineStr">
         <is>
           <t>1174</t>
@@ -1156,62 +1152,62 @@
           <t>5</t>
         </is>
       </c>
-      <c r="AM3" s="0" t="inlineStr">
+      <c r="AN3" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
         </is>
       </c>
-      <c r="AN3" s="0" t="inlineStr">
+      <c r="AO3" s="0" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="AO3" s="0" t="inlineStr">
+      <c r="AP3" s="0" t="inlineStr">
         <is>
           <t>2520.0</t>
         </is>
       </c>
-      <c r="AP3" s="0" t="inlineStr">
+      <c r="AQ3" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
         </is>
       </c>
-      <c r="AQ3" s="0" t="inlineStr">
+      <c r="AR3" s="0" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AR3" s="0" t="inlineStr">
+      <c r="AS3" s="0" t="inlineStr">
         <is>
           <t>264.0</t>
         </is>
       </c>
-      <c r="AS3" s="0" t="inlineStr">
+      <c r="AT3" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
         </is>
       </c>
-      <c r="AT3" s="0" t="inlineStr">
+      <c r="AU3" s="0" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AU3" s="0" t="inlineStr">
+      <c r="AV3" s="0" t="inlineStr">
         <is>
           <t>990.0</t>
         </is>
       </c>
-      <c r="AV3" s="0" t="inlineStr">
+      <c r="AW3" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
         </is>
       </c>
-      <c r="AW3" s="0" t="inlineStr">
+      <c r="AX3" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX3" s="0" t="inlineStr">
+      <c r="AY3" s="0" t="inlineStr">
         <is>
           <t>596.0</t>
         </is>
@@ -1303,7 +1299,6 @@
           <t>4810</t>
         </is>
       </c>
-      <c r="T4" s="0" t="inlineStr"/>
       <c r="U4" s="0" t="inlineStr">
         <is>
           <t>1174</t>
@@ -1374,62 +1369,62 @@
           <t>5</t>
         </is>
       </c>
-      <c r="AM4" s="0" t="inlineStr">
+      <c r="AN4" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
         </is>
       </c>
-      <c r="AN4" s="0" t="inlineStr">
+      <c r="AO4" s="0" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="AO4" s="0" t="inlineStr">
+      <c r="AP4" s="0" t="inlineStr">
         <is>
           <t>2520.0</t>
         </is>
       </c>
-      <c r="AP4" s="0" t="inlineStr">
+      <c r="AQ4" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
         </is>
       </c>
-      <c r="AQ4" s="0" t="inlineStr">
+      <c r="AR4" s="0" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AR4" s="0" t="inlineStr">
+      <c r="AS4" s="0" t="inlineStr">
         <is>
           <t>264.0</t>
         </is>
       </c>
-      <c r="AS4" s="0" t="inlineStr">
+      <c r="AT4" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
         </is>
       </c>
-      <c r="AT4" s="0" t="inlineStr">
+      <c r="AU4" s="0" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AU4" s="0" t="inlineStr">
+      <c r="AV4" s="0" t="inlineStr">
         <is>
           <t>990.0</t>
         </is>
       </c>
-      <c r="AV4" s="0" t="inlineStr">
+      <c r="AW4" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
         </is>
       </c>
-      <c r="AW4" s="0" t="inlineStr">
+      <c r="AX4" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX4" s="0" t="inlineStr">
+      <c r="AY4" s="0" t="inlineStr">
         <is>
           <t>596.0</t>
         </is>
@@ -1521,7 +1516,6 @@
           <t>4810</t>
         </is>
       </c>
-      <c r="T5" s="0" t="inlineStr"/>
       <c r="U5" s="0" t="inlineStr">
         <is>
           <t>1174</t>
@@ -1592,62 +1586,62 @@
           <t>5</t>
         </is>
       </c>
-      <c r="AM5" s="0" t="inlineStr">
+      <c r="AN5" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
         </is>
       </c>
-      <c r="AN5" s="0" t="inlineStr">
+      <c r="AO5" s="0" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="AO5" s="0" t="inlineStr">
+      <c r="AP5" s="0" t="inlineStr">
         <is>
           <t>2520.0</t>
         </is>
       </c>
-      <c r="AP5" s="0" t="inlineStr">
+      <c r="AQ5" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
         </is>
       </c>
-      <c r="AQ5" s="0" t="inlineStr">
+      <c r="AR5" s="0" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AR5" s="0" t="inlineStr">
+      <c r="AS5" s="0" t="inlineStr">
         <is>
           <t>264.0</t>
         </is>
       </c>
-      <c r="AS5" s="0" t="inlineStr">
+      <c r="AT5" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
         </is>
       </c>
-      <c r="AT5" s="0" t="inlineStr">
+      <c r="AU5" s="0" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AU5" s="0" t="inlineStr">
+      <c r="AV5" s="0" t="inlineStr">
         <is>
           <t>990.0</t>
         </is>
       </c>
-      <c r="AV5" s="0" t="inlineStr">
+      <c r="AW5" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
         </is>
       </c>
-      <c r="AW5" s="0" t="inlineStr">
+      <c r="AX5" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX5" s="0" t="inlineStr">
+      <c r="AY5" s="0" t="inlineStr">
         <is>
           <t>596.0</t>
         </is>
@@ -1749,7 +1743,6 @@
           <t>4810</t>
         </is>
       </c>
-      <c r="T6" s="0" t="inlineStr"/>
       <c r="U6" s="0" t="inlineStr">
         <is>
           <t>1174</t>
@@ -1820,62 +1813,62 @@
           <t>5</t>
         </is>
       </c>
-      <c r="AM6" s="0" t="inlineStr">
+      <c r="AN6" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
         </is>
       </c>
-      <c r="AN6" s="0" t="inlineStr">
+      <c r="AO6" s="0" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="AO6" s="0" t="inlineStr">
+      <c r="AP6" s="0" t="inlineStr">
         <is>
           <t>2520.0</t>
         </is>
       </c>
-      <c r="AP6" s="0" t="inlineStr">
+      <c r="AQ6" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
         </is>
       </c>
-      <c r="AQ6" s="0" t="inlineStr">
+      <c r="AR6" s="0" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AR6" s="0" t="inlineStr">
+      <c r="AS6" s="0" t="inlineStr">
         <is>
           <t>264.0</t>
         </is>
       </c>
-      <c r="AS6" s="0" t="inlineStr">
+      <c r="AT6" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
         </is>
       </c>
-      <c r="AT6" s="0" t="inlineStr">
+      <c r="AU6" s="0" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AU6" s="0" t="inlineStr">
+      <c r="AV6" s="0" t="inlineStr">
         <is>
           <t>990.0</t>
         </is>
       </c>
-      <c r="AV6" s="0" t="inlineStr">
+      <c r="AW6" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
         </is>
       </c>
-      <c r="AW6" s="0" t="inlineStr">
+      <c r="AX6" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX6" s="0" t="inlineStr">
+      <c r="AY6" s="0" t="inlineStr">
         <is>
           <t>596.0</t>
         </is>
@@ -1977,7 +1970,6 @@
           <t>4810</t>
         </is>
       </c>
-      <c r="T7" s="0" t="inlineStr"/>
       <c r="U7" s="0" t="inlineStr">
         <is>
           <t>1174</t>
@@ -2048,62 +2040,62 @@
           <t>5</t>
         </is>
       </c>
-      <c r="AM7" s="0" t="inlineStr">
+      <c r="AN7" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
         </is>
       </c>
-      <c r="AN7" s="0" t="inlineStr">
+      <c r="AO7" s="0" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="AO7" s="0" t="inlineStr">
+      <c r="AP7" s="0" t="inlineStr">
         <is>
           <t>2520.0</t>
         </is>
       </c>
-      <c r="AP7" s="0" t="inlineStr">
+      <c r="AQ7" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
         </is>
       </c>
-      <c r="AQ7" s="0" t="inlineStr">
+      <c r="AR7" s="0" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AR7" s="0" t="inlineStr">
+      <c r="AS7" s="0" t="inlineStr">
         <is>
           <t>264.0</t>
         </is>
       </c>
-      <c r="AS7" s="0" t="inlineStr">
+      <c r="AT7" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
         </is>
       </c>
-      <c r="AT7" s="0" t="inlineStr">
+      <c r="AU7" s="0" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AU7" s="0" t="inlineStr">
+      <c r="AV7" s="0" t="inlineStr">
         <is>
           <t>990.0</t>
         </is>
       </c>
-      <c r="AV7" s="0" t="inlineStr">
+      <c r="AW7" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
         </is>
       </c>
-      <c r="AW7" s="0" t="inlineStr">
+      <c r="AX7" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX7" s="0" t="inlineStr">
+      <c r="AY7" s="0" t="inlineStr">
         <is>
           <t>596.0</t>
         </is>
@@ -2205,7 +2197,6 @@
           <t>4810</t>
         </is>
       </c>
-      <c r="T8" s="0" t="inlineStr"/>
       <c r="U8" s="0" t="inlineStr">
         <is>
           <t>1174</t>
@@ -2276,62 +2267,62 @@
           <t>5</t>
         </is>
       </c>
-      <c r="AM8" s="0" t="inlineStr">
+      <c r="AN8" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
         </is>
       </c>
-      <c r="AN8" s="0" t="inlineStr">
+      <c r="AO8" s="0" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="AO8" s="0" t="inlineStr">
+      <c r="AP8" s="0" t="inlineStr">
         <is>
           <t>2520.0</t>
         </is>
       </c>
-      <c r="AP8" s="0" t="inlineStr">
+      <c r="AQ8" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
         </is>
       </c>
-      <c r="AQ8" s="0" t="inlineStr">
+      <c r="AR8" s="0" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AR8" s="0" t="inlineStr">
+      <c r="AS8" s="0" t="inlineStr">
         <is>
           <t>264.0</t>
         </is>
       </c>
-      <c r="AS8" s="0" t="inlineStr">
+      <c r="AT8" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
         </is>
       </c>
-      <c r="AT8" s="0" t="inlineStr">
+      <c r="AU8" s="0" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AU8" s="0" t="inlineStr">
+      <c r="AV8" s="0" t="inlineStr">
         <is>
           <t>990.0</t>
         </is>
       </c>
-      <c r="AV8" s="0" t="inlineStr">
+      <c r="AW8" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
         </is>
       </c>
-      <c r="AW8" s="0" t="inlineStr">
+      <c r="AX8" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AX8" s="0" t="inlineStr">
+      <c r="AY8" s="0" t="inlineStr">
         <is>
           <t>596.0</t>
         </is>
@@ -2433,7 +2424,6 @@
           <t>3953</t>
         </is>
       </c>
-      <c r="T9" s="0" t="inlineStr"/>
       <c r="U9" s="0" t="inlineStr">
         <is>
           <t>1146</t>
@@ -2504,62 +2494,62 @@
           <t>24</t>
         </is>
       </c>
-      <c r="AM9" s="0" t="inlineStr">
+      <c r="AN9" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
         </is>
       </c>
-      <c r="AN9" s="0" t="inlineStr">
+      <c r="AO9" s="0" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AO9" s="0" t="inlineStr">
+      <c r="AP9" s="0" t="inlineStr">
         <is>
           <t>1125.0</t>
         </is>
       </c>
-      <c r="AP9" s="0" t="inlineStr">
+      <c r="AQ9" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
         </is>
       </c>
-      <c r="AQ9" s="0" t="inlineStr">
+      <c r="AR9" s="0" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AR9" s="0" t="inlineStr">
+      <c r="AS9" s="0" t="inlineStr">
         <is>
           <t>616.0</t>
         </is>
       </c>
-      <c r="AS9" s="0" t="inlineStr">
+      <c r="AT9" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
         </is>
       </c>
-      <c r="AT9" s="0" t="inlineStr">
+      <c r="AU9" s="0" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AU9" s="0" t="inlineStr">
+      <c r="AV9" s="0" t="inlineStr">
         <is>
           <t>1386.0</t>
         </is>
       </c>
-      <c r="AV9" s="0" t="inlineStr">
+      <c r="AW9" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
         </is>
       </c>
-      <c r="AW9" s="0" t="inlineStr">
+      <c r="AX9" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AX9" s="0" t="inlineStr">
+      <c r="AY9" s="0" t="inlineStr">
         <is>
           <t>298.0</t>
         </is>
@@ -2661,7 +2651,6 @@
           <t>3953</t>
         </is>
       </c>
-      <c r="T10" s="0" t="inlineStr"/>
       <c r="U10" s="0" t="inlineStr">
         <is>
           <t>1146</t>
@@ -2732,292 +2721,6124 @@
           <t>24</t>
         </is>
       </c>
-      <c r="AM10" s="0" t="inlineStr">
+      <c r="AN10" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
         </is>
       </c>
-      <c r="AN10" s="0" t="inlineStr">
+      <c r="AO10" s="0" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AO10" s="0" t="inlineStr">
+      <c r="AP10" s="0" t="inlineStr">
         <is>
           <t>1125.0</t>
         </is>
       </c>
-      <c r="AP10" s="0" t="inlineStr">
+      <c r="AQ10" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
         </is>
       </c>
-      <c r="AQ10" s="0" t="inlineStr">
+      <c r="AR10" s="0" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AR10" s="0" t="inlineStr">
+      <c r="AS10" s="0" t="inlineStr">
         <is>
           <t>616.0</t>
         </is>
       </c>
-      <c r="AS10" s="0" t="inlineStr">
+      <c r="AT10" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
         </is>
       </c>
-      <c r="AT10" s="0" t="inlineStr">
+      <c r="AU10" s="0" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AU10" s="0" t="inlineStr">
+      <c r="AV10" s="0" t="inlineStr">
         <is>
           <t>1386.0</t>
         </is>
       </c>
-      <c r="AV10" s="0" t="inlineStr">
+      <c r="AW10" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
         </is>
       </c>
-      <c r="AW10" s="0" t="inlineStr">
+      <c r="AX10" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AX10" s="0" t="inlineStr">
+      <c r="AY10" s="0" t="inlineStr">
         <is>
           <t>298.0</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>2022-03-20</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>147.05</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="0" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="0" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="0" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="0" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="0" t="inlineStr">
         <is>
           <t>232</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="0" t="inlineStr">
         <is>
           <t>1,996</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>147.05</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" s="0" t="inlineStr">
         <is>
           <t>2.04</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="0" t="inlineStr">
         <is>
           <t>1194</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="0" t="inlineStr">
         <is>
           <t>232</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P11" s="0" t="inlineStr">
         <is>
           <t>962</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" s="0" t="inlineStr">
         <is>
           <t>3953.00</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R11" s="0" t="inlineStr">
         <is>
           <t>3953</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="0" t="inlineStr">
         <is>
           <t>3953</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
+      <c r="U11" s="0" t="inlineStr">
         <is>
           <t>1146</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V11" s="0" t="inlineStr">
         <is>
           <t>962</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W11" s="0" t="inlineStr">
         <is>
           <t>304</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X11" s="0" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA11" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AB11" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AC11" s="0" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AD11" s="0" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AE11" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AF11" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AL11" s="0" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AN11" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AO11" s="0" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AP11" s="0" t="inlineStr">
         <is>
           <t>1125.0</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AQ11" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AR11" s="0" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" s="0" t="inlineStr">
         <is>
           <t>616.0</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AT11" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr">
+      <c r="AU11" s="0" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AU11" t="inlineStr">
+      <c r="AV11" s="0" t="inlineStr">
         <is>
           <t>1386.0</t>
         </is>
       </c>
-      <c r="AV11" t="inlineStr">
+      <c r="AW11" s="0" t="inlineStr">
         <is>
           <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
         </is>
       </c>
-      <c r="AW11" t="inlineStr">
+      <c r="AX11" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AX11" t="inlineStr">
+      <c r="AY11" s="0" t="inlineStr">
         <is>
           <t>298.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>147.05</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>1,996</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>147.05</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="N12" s="0" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="O12" s="0" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="P12" s="0" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="Q12" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R12" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S12" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U12" s="0" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="V12" s="0" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="W12" s="0" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="X12" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="Y12" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA12" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB12" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC12" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD12" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF12" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL12" s="0" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AN12" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO12" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AP12" s="0" t="inlineStr">
+        <is>
+          <t>1125.0</t>
+        </is>
+      </c>
+      <c r="AQ12" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR12" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AS12" s="0" t="inlineStr">
+        <is>
+          <t>616.0</t>
+        </is>
+      </c>
+      <c r="AT12" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU12" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AV12" s="0" t="inlineStr">
+        <is>
+          <t>1386.0</t>
+        </is>
+      </c>
+      <c r="AW12" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY12" s="0" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>147.05</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>1,996</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>147.05</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="O13" s="0" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="P13" s="0" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="Q13" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R13" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S13" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U13" s="0" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="V13" s="0" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="W13" s="0" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="X13" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="Y13" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AA13" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AB13" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC13" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD13" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE13" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF13" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL13" s="0" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AN13" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO13" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AP13" s="0" t="inlineStr">
+        <is>
+          <t>1125.0</t>
+        </is>
+      </c>
+      <c r="AQ13" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR13" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AS13" s="0" t="inlineStr">
+        <is>
+          <t>616.0</t>
+        </is>
+      </c>
+      <c r="AT13" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU13" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AV13" s="0" t="inlineStr">
+        <is>
+          <t>1386.0</t>
+        </is>
+      </c>
+      <c r="AW13" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX13" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY13" s="0" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>222.32</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>3,457</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="O14" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="P14" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="Q14" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R14" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S14" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U14" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="V14" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA14" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB14" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC14" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD14" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE14" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF14" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL14" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AN14" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO14" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP14" s="0" t="inlineStr">
+        <is>
+          <t>2025.0</t>
+        </is>
+      </c>
+      <c r="AQ14" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR14" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS14" s="0" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="AT14" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV14" s="0" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="AW14" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY14" s="0" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>222.32</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>3,457</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="O15" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="P15" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="Q15" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R15" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S15" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U15" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="V15" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB15" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC15" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD15" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE15" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF15" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG15" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL15" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AN15" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO15" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP15" s="0" t="inlineStr">
+        <is>
+          <t>2025.0</t>
+        </is>
+      </c>
+      <c r="AQ15" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR15" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS15" s="0" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="AT15" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU15" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV15" s="0" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="AW15" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX15" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY15" s="0" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>222.32</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>3,457</t>
+        </is>
+      </c>
+      <c r="L16" s="0" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N16" s="0" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="O16" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="P16" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="Q16" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R16" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S16" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U16" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="V16" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="W16" s="0" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X16" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y16" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA16" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB16" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC16" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD16" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE16" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF16" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG16" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL16" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AN16" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO16" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP16" s="0" t="inlineStr">
+        <is>
+          <t>2025.0</t>
+        </is>
+      </c>
+      <c r="AQ16" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR16" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS16" s="0" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="AT16" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU16" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV16" s="0" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="AW16" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX16" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY16" s="0" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>222.32</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>3,457</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="O17" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="P17" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="Q17" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R17" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S17" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U17" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="V17" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X17" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y17" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA17" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB17" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC17" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD17" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE17" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF17" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG17" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL17" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AN17" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO17" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP17" s="0" t="inlineStr">
+        <is>
+          <t>2025.0</t>
+        </is>
+      </c>
+      <c r="AQ17" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR17" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS17" s="0" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="AT17" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU17" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV17" s="0" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="AW17" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX17" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY17" s="0" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>222.32</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>3,457</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N18" s="0" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="O18" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="P18" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="Q18" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R18" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S18" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U18" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="V18" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="W18" s="0" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X18" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y18" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA18" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB18" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC18" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD18" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE18" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF18" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG18" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL18" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AN18" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO18" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP18" s="0" t="inlineStr">
+        <is>
+          <t>2025.0</t>
+        </is>
+      </c>
+      <c r="AQ18" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR18" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS18" s="0" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="AT18" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU18" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV18" s="0" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="AW18" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX18" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY18" s="0" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>222.32</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>3,457</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N19" s="0" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="O19" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="P19" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="Q19" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R19" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S19" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U19" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="V19" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="W19" s="0" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y19" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z19" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA19" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB19" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC19" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD19" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE19" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF19" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG19" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL19" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AN19" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO19" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP19" s="0" t="inlineStr">
+        <is>
+          <t>2025.0</t>
+        </is>
+      </c>
+      <c r="AQ19" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR19" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS19" s="0" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="AT19" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU19" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV19" s="0" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="AW19" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX19" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY19" s="0" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>222.32</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>3,457</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N20" s="0" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="O20" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="P20" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="Q20" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R20" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S20" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U20" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="V20" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="W20" s="0" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X20" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y20" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z20" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA20" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB20" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC20" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD20" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE20" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF20" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG20" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL20" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AN20" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO20" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP20" s="0" t="inlineStr">
+        <is>
+          <t>2025.0</t>
+        </is>
+      </c>
+      <c r="AQ20" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR20" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS20" s="0" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="AT20" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU20" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV20" s="0" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="AW20" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX20" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY20" s="0" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>222.32</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>3,457</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N21" s="0" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="O21" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="P21" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="Q21" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R21" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S21" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U21" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="V21" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="W21" s="0" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X21" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y21" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z21" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA21" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB21" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC21" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD21" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE21" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF21" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG21" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL21" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AN21" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO21" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP21" s="0" t="inlineStr">
+        <is>
+          <t>2025.0</t>
+        </is>
+      </c>
+      <c r="AQ21" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR21" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS21" s="0" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="AT21" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU21" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV21" s="0" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="AW21" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX21" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY21" s="0" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>222.32</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>3,457</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N22" s="0" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="O22" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="P22" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="Q22" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R22" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S22" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U22" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="V22" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="W22" s="0" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y22" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z22" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA22" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB22" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC22" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD22" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE22" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF22" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG22" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL22" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AN22" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO22" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP22" s="0" t="inlineStr">
+        <is>
+          <t>2025.0</t>
+        </is>
+      </c>
+      <c r="AQ22" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR22" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS22" s="0" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="AT22" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU22" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV22" s="0" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="AW22" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX22" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY22" s="0" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>222.32</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>3,457</t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N23" s="0" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="O23" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="P23" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="Q23" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R23" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S23" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U23" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="V23" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="W23" s="0" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X23" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y23" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z23" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA23" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB23" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC23" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD23" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE23" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF23" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG23" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL23" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AN23" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO23" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP23" s="0" t="inlineStr">
+        <is>
+          <t>2025.0</t>
+        </is>
+      </c>
+      <c r="AQ23" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR23" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS23" s="0" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="AT23" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU23" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV23" s="0" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="AW23" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX23" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY23" s="0" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>222.32</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>3,457</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N24" s="0" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="O24" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="P24" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="Q24" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R24" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S24" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U24" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="V24" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="W24" s="0" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X24" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y24" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z24" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA24" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB24" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC24" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD24" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE24" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF24" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG24" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL24" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AN24" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO24" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP24" s="0" t="inlineStr">
+        <is>
+          <t>2025.0</t>
+        </is>
+      </c>
+      <c r="AQ24" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR24" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS24" s="0" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="AT24" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU24" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV24" s="0" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="AW24" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX24" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY24" s="0" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>222.32</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>3,457</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N25" s="0" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="O25" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="P25" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="Q25" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R25" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S25" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U25" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="V25" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="W25" s="0" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X25" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y25" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z25" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA25" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB25" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC25" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD25" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE25" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF25" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG25" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL25" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AN25" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO25" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP25" s="0" t="inlineStr">
+        <is>
+          <t>2025.0</t>
+        </is>
+      </c>
+      <c r="AQ25" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR25" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS25" s="0" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="AT25" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU25" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV25" s="0" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="AW25" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX25" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY25" s="0" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>222.32</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>3,457</t>
+        </is>
+      </c>
+      <c r="L26" s="0" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="M26" s="0" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N26" s="0" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="O26" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="P26" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="Q26" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R26" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S26" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U26" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="V26" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="W26" s="0" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X26" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y26" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z26" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA26" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB26" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC26" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD26" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE26" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF26" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG26" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL26" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AN26" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO26" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP26" s="0" t="inlineStr">
+        <is>
+          <t>2025.0</t>
+        </is>
+      </c>
+      <c r="AQ26" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR26" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS26" s="0" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="AT26" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU26" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV26" s="0" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="AW26" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX26" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY26" s="0" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>222.32</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>3,457</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="N27" s="0" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="O27" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="P27" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="Q27" s="0" t="inlineStr">
+        <is>
+          <t>3953.00</t>
+        </is>
+      </c>
+      <c r="R27" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="S27" s="0" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="U27" s="0" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="V27" s="0" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="W27" s="0" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="X27" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y27" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z27" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA27" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB27" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC27" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AD27" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE27" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF27" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG27" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL27" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AN27" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO27" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AP27" s="0" t="inlineStr">
+        <is>
+          <t>2025.0</t>
+        </is>
+      </c>
+      <c r="AQ27" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR27" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AS27" s="0" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="AT27" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU27" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV27" s="0" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="AW27" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX27" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY27" s="0" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>249.77</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>3,337</t>
+        </is>
+      </c>
+      <c r="L28" s="0" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="M28" s="0" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="N28" s="0" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="O28" s="0" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="P28" s="0" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="Q28" s="0" t="inlineStr">
+        <is>
+          <t>2275.00</t>
+        </is>
+      </c>
+      <c r="R28" s="0" t="inlineStr">
+        <is>
+          <t>2275</t>
+        </is>
+      </c>
+      <c r="S28" s="0" t="inlineStr">
+        <is>
+          <t>2275</t>
+        </is>
+      </c>
+      <c r="U28" s="0" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="V28" s="0" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="W28" s="0" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="X28" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Y28" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z28" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA28" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB28" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AC28" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AD28" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AE28" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF28" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG28" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AL28" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AN28" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO28" s="0" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AP28" s="0" t="inlineStr">
+        <is>
+          <t>1395.0</t>
+        </is>
+      </c>
+      <c r="AQ28" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR28" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS28" s="0" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="AT28" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU28" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV28" s="0" t="inlineStr">
+        <is>
+          <t>792.0</t>
+        </is>
+      </c>
+      <c r="AW28" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX28" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY28" s="0" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>303.66</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>4,438</t>
+        </is>
+      </c>
+      <c r="L29" s="0" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="M29" s="0" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="N29" s="0" t="inlineStr">
+        <is>
+          <t>1901</t>
+        </is>
+      </c>
+      <c r="O29" s="0" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="P29" s="0" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
+      <c r="Q29" s="0" t="inlineStr">
+        <is>
+          <t>6426.20</t>
+        </is>
+      </c>
+      <c r="R29" s="0" t="inlineStr">
+        <is>
+          <t>6594.20</t>
+        </is>
+      </c>
+      <c r="S29" s="0" t="inlineStr">
+        <is>
+          <t>6594.20</t>
+        </is>
+      </c>
+      <c r="U29" s="0" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+      <c r="V29" s="0" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="W29" s="0" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="X29" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="Y29" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z29" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA29" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB29" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AC29" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AD29" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AE29" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF29" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG29" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AL29" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AN29" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[45.0]</t>
+        </is>
+      </c>
+      <c r="AO29" s="0" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AP29" s="0" t="inlineStr">
+        <is>
+          <t>3060.0</t>
+        </is>
+      </c>
+      <c r="AQ29" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR29" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AS29" s="0" t="inlineStr">
+        <is>
+          <t>528.0</t>
+        </is>
+      </c>
+      <c r="AT29" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU29" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AV29" s="0" t="inlineStr">
+        <is>
+          <t>1386.0</t>
+        </is>
+      </c>
+      <c r="AW29" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX29" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY29" s="0" t="inlineStr">
+        <is>
+          <t>596.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>303.66</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>4,438</t>
+        </is>
+      </c>
+      <c r="L30" s="0" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="M30" s="0" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="N30" s="0" t="inlineStr">
+        <is>
+          <t>1901</t>
+        </is>
+      </c>
+      <c r="O30" s="0" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="P30" s="0" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
+      <c r="Q30" s="0" t="inlineStr">
+        <is>
+          <t>6426.20</t>
+        </is>
+      </c>
+      <c r="R30" s="0" t="inlineStr">
+        <is>
+          <t>6594.20</t>
+        </is>
+      </c>
+      <c r="S30" s="0" t="inlineStr">
+        <is>
+          <t>6594.20</t>
+        </is>
+      </c>
+      <c r="T30" s="0" t="inlineStr"/>
+      <c r="U30" s="0" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+      <c r="V30" s="0" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="W30" s="0" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="X30" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="Y30" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z30" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA30" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AB30" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AC30" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AD30" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AE30" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF30" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG30" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AL30" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM30" s="0" t="inlineStr">
+        <is>
+          <t>火锅</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>264.11</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>3,837</t>
+        </is>
+      </c>
+      <c r="L31" s="0" t="inlineStr">
+        <is>
+          <t>132.06</t>
+        </is>
+      </c>
+      <c r="M31" s="0" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="N31" s="0" t="inlineStr">
+        <is>
+          <t>1488</t>
+        </is>
+      </c>
+      <c r="O31" s="0" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="P31" s="0" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="Q31" s="0" t="inlineStr">
+        <is>
+          <t>3333.60</t>
+        </is>
+      </c>
+      <c r="R31" s="0" t="inlineStr">
+        <is>
+          <t>3405.60</t>
+        </is>
+      </c>
+      <c r="S31" s="0" t="inlineStr">
+        <is>
+          <t>3405.60</t>
+        </is>
+      </c>
+      <c r="T31" s="0" t="inlineStr"/>
+      <c r="U31" s="0" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="V31" s="0" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="W31" s="0" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="X31" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Y31" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z31" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA31" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AB31" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AC31" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AD31" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AE31" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF31" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG31" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AL31" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM31" s="0" t="inlineStr">
+        <is>
+          <t>火锅</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>255.21</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>3,700</t>
+        </is>
+      </c>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>127.61</t>
+        </is>
+      </c>
+      <c r="M32" s="0" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="N32" s="0" t="inlineStr">
+        <is>
+          <t>1648</t>
+        </is>
+      </c>
+      <c r="O32" s="0" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="P32" s="0" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="Q32" s="0" t="inlineStr">
+        <is>
+          <t>3183.30</t>
+        </is>
+      </c>
+      <c r="R32" s="0" t="inlineStr">
+        <is>
+          <t>3189.30</t>
+        </is>
+      </c>
+      <c r="S32" s="0" t="inlineStr">
+        <is>
+          <t>3189.30</t>
+        </is>
+      </c>
+      <c r="T32" s="0" t="inlineStr"/>
+      <c r="U32" s="0" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
+      </c>
+      <c r="V32" s="0" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
+      </c>
+      <c r="W32" s="0" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="X32" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y32" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z32" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA32" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AB32" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AC32" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AD32" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AE32" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF32" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG32" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AL32" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM32" s="0" t="inlineStr">
+        <is>
+          <t>火锅</t>
+        </is>
+      </c>
+      <c r="AQ32" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AR32" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS32" s="0" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="AT32" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU32" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV32" s="0" t="inlineStr">
+        <is>
+          <t>792.0</t>
+        </is>
+      </c>
+      <c r="AW32" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅4-5人餐[298.0]</t>
+        </is>
+      </c>
+      <c r="AX32" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY32" s="0" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>244.67</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>4,338</t>
+        </is>
+      </c>
+      <c r="L33" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M33" s="0" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="N33" s="0" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="O33" s="0" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="P33" s="0" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="Q33" s="0" t="inlineStr">
+        <is>
+          <t>600.60</t>
+        </is>
+      </c>
+      <c r="R33" s="0" t="inlineStr">
+        <is>
+          <t>642.60</t>
+        </is>
+      </c>
+      <c r="S33" s="0" t="inlineStr">
+        <is>
+          <t>642.60</t>
+        </is>
+      </c>
+      <c r="T33" s="0" t="inlineStr"/>
+      <c r="U33" s="0" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="V33" s="0" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="W33" s="0" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="X33" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y33" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z33" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA33" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AB33" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AC33" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AD33" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AE33" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF33" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG33" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AL33" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM33" s="0" t="inlineStr">
+        <is>
+          <t>火锅</t>
+        </is>
+      </c>
+      <c r="AT33" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU33" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV33" s="0" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>316.76</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>4,781</t>
+        </is>
+      </c>
+      <c r="L34" s="0" t="inlineStr">
+        <is>
+          <t>158.38</t>
+        </is>
+      </c>
+      <c r="M34" s="0" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="N34" s="0" t="inlineStr">
+        <is>
+          <t>1351</t>
+        </is>
+      </c>
+      <c r="O34" s="0" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="P34" s="0" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="Q34" s="0" t="inlineStr">
+        <is>
+          <t>2370.50</t>
+        </is>
+      </c>
+      <c r="R34" s="0" t="inlineStr">
+        <is>
+          <t>2430.50</t>
+        </is>
+      </c>
+      <c r="S34" s="0" t="inlineStr">
+        <is>
+          <t>2430.50</t>
+        </is>
+      </c>
+      <c r="T34" s="0" t="inlineStr"/>
+      <c r="U34" s="0" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="V34" s="0" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="W34" s="0" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="X34" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y34" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z34" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA34" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AB34" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AC34" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AD34" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AE34" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF34" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG34" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AL34" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM34" s="0" t="inlineStr">
+        <is>
+          <t>火锅</t>
+        </is>
+      </c>
+      <c r="AT34" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU34" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV34" s="0" t="inlineStr">
+        <is>
+          <t>792.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>316.76</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="K35" s="0" t="inlineStr">
+        <is>
+          <t>4,781</t>
+        </is>
+      </c>
+      <c r="L35" s="0" t="inlineStr">
+        <is>
+          <t>158.38</t>
+        </is>
+      </c>
+      <c r="M35" s="0" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="N35" s="0" t="inlineStr">
+        <is>
+          <t>1351</t>
+        </is>
+      </c>
+      <c r="O35" s="0" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="P35" s="0" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="Q35" s="0" t="inlineStr">
+        <is>
+          <t>2370.50</t>
+        </is>
+      </c>
+      <c r="R35" s="0" t="inlineStr">
+        <is>
+          <t>2430.50</t>
+        </is>
+      </c>
+      <c r="S35" s="0" t="inlineStr">
+        <is>
+          <t>2430.50</t>
+        </is>
+      </c>
+      <c r="T35" s="0" t="inlineStr"/>
+      <c r="U35" s="0" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="V35" s="0" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="W35" s="0" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="X35" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y35" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z35" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA35" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AB35" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AC35" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AD35" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AE35" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF35" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG35" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AL35" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM35" s="0" t="inlineStr">
+        <is>
+          <t>火锅</t>
+        </is>
+      </c>
+      <c r="AT35" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU35" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AV35" s="0" t="inlineStr">
+        <is>
+          <t>792.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>226.31</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H36" s="0" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="K36" s="0" t="inlineStr">
+        <is>
+          <t>4,021</t>
+        </is>
+      </c>
+      <c r="L36" s="0" t="inlineStr">
+        <is>
+          <t>113.16</t>
+        </is>
+      </c>
+      <c r="M36" s="0" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="N36" s="0" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="O36" s="0" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="P36" s="0" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="Q36" s="0" t="inlineStr">
+        <is>
+          <t>2575.80</t>
+        </is>
+      </c>
+      <c r="R36" s="0" t="inlineStr">
+        <is>
+          <t>2611.80</t>
+        </is>
+      </c>
+      <c r="S36" s="0" t="inlineStr">
+        <is>
+          <t>2611.80</t>
+        </is>
+      </c>
+      <c r="T36" s="0" t="inlineStr"/>
+      <c r="U36" s="0" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="V36" s="0" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="W36" s="0" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="X36" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Y36" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z36" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA36" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AB36" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AC36" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AD36" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AE36" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF36" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG36" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AL36" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AM36" s="0" t="inlineStr">
+        <is>
+          <t>火锅</t>
+        </is>
+      </c>
+      <c r="AT36" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU36" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV36" s="0" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>226.31</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I37" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="K37" s="0" t="inlineStr">
+        <is>
+          <t>4,021</t>
+        </is>
+      </c>
+      <c r="L37" s="0" t="inlineStr">
+        <is>
+          <t>113.16</t>
+        </is>
+      </c>
+      <c r="M37" s="0" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="N37" s="0" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="O37" s="0" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="P37" s="0" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="Q37" s="0" t="inlineStr">
+        <is>
+          <t>2575.80</t>
+        </is>
+      </c>
+      <c r="R37" s="0" t="inlineStr">
+        <is>
+          <t>2611.80</t>
+        </is>
+      </c>
+      <c r="S37" s="0" t="inlineStr">
+        <is>
+          <t>2611.80</t>
+        </is>
+      </c>
+      <c r="T37" s="0" t="inlineStr"/>
+      <c r="U37" s="0" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="V37" s="0" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="W37" s="0" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="X37" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Y37" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z37" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA37" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AB37" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AC37" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AD37" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AE37" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF37" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG37" s="0" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AL37" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AM37" s="0" t="inlineStr">
+        <is>
+          <t>火锅</t>
+        </is>
+      </c>
+      <c r="AT37" s="0" t="inlineStr">
+        <is>
+          <t>珠海_火凤祥鲜货火锅2-3人餐[198.0]</t>
+        </is>
+      </c>
+      <c r="AU37" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV37" s="0" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>226.31</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>4,021</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>113.16</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2575.80</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>2611.80</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2611.80</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>火锅</t>
+        </is>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>20211119_凤祥必点甜点·人人1个_火凤祥鲜货火锅天然椰子冻·必点2选1[25.8元][734021810]</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>20220310_凤祥·尝鲜1-2人菜品特惠_火凤祥鲜货火锅1-2人餐[88.0元][755331627]</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>20211113_凤祥·夜上海2-3人情景套餐_火凤祥鲜货火锅2-3人餐[198.0元][733026068]</t>
+        </is>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>20220310_凤祥·小资2-3人轻奢套餐_火凤祥鲜货火锅2-3人餐[268.0元][755369184]</t>
+        </is>
+      </c>
+      <c r="AU38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>20211115_凤祥·上海滩3-5人欢聚套餐_火凤祥鲜货火锅3-5人餐[298.0元][733188517]</t>
+        </is>
+      </c>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>20220111_￥39.9元套餐项目_火凤祥鲜货火锅代金券[45.0元][744792800]</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AZ38" t="inlineStr">
+        <is>
+          <t>20211125_代金券_火凤祥鲜货火锅代金券[88.0元][735229344]</t>
+        </is>
+      </c>
+      <c r="BA38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
